--- a/data/genome/7_yeasts_info.xlsx
+++ b/data/genome/7_yeasts_info.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\github\Unified_Yeast_GEMs_Database\data\genome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17C015-CD11-43BA-AE32-734357E451B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CEF56-7EB4-424E-A35D-E10483E43C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>Saccharomyces cerevisiae</t>
   </si>
@@ -185,9 +185,6 @@
     </r>
   </si>
   <si>
-    <t>SSS</t>
-  </si>
-  <si>
     <t>Scannell DR, et al. The Awesome Power of Yeast Evolutionary Genetics: New Genome Sequences and Strain Resources for the Saccharomyces sensu stricto Genus. G3 (Bethesda) 1, 11–25 (2011).</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -215,6 +212,18 @@
   </si>
   <si>
     <t>Strain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saccharomyces jurei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBS 14759</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naseeb S, et al. Saccharomyces jurei sp. nov., isolation and genetic identification of a novel yeast species from Quercus robur. Int J Syst Evol Microbiol. 2017 Jun;67(6):2046-2052. doi: 10.1099/ijsem.0.002013. Epub 2017 Jun 22. PMID: 28639933; PMCID: PMC5817255.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,15 +644,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -660,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -881,7 +893,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G5" s="5">
         <v>16</v>
@@ -914,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -932,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5">
         <v>16</v>
@@ -968,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -986,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5">
         <v>16</v>
@@ -1022,13 +1034,13 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -1040,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5">
         <v>16</v>
@@ -1076,9 +1088,47 @@
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11938758</v>
+      </c>
+      <c r="J9" s="3">
+        <v>738741</v>
+      </c>
+      <c r="K9" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
